--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2546A02-7195-41BE-9E46-FBA61A30F386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{303864A7-EF41-4D6D-9358-EC6A70AF3ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Priorités">Feuil2!$A$3:$A$6</definedName>
+    <definedName name="Prios">Feuil2!$C$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Acteur</t>
   </si>
@@ -57,24 +58,12 @@
     <t>Visiteurs</t>
   </si>
   <si>
-    <t>Visualiser les livres affichés</t>
-  </si>
-  <si>
     <t>Rechercher des livres dans la liste</t>
   </si>
   <si>
-    <t>Accepter / refuser les demandes de connexion aux comptes client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter des livres </t>
-  </si>
-  <si>
     <t>Importer JSON</t>
   </si>
   <si>
-    <t>Connexion / déconnexion</t>
-  </si>
-  <si>
     <t>Clients</t>
   </si>
   <si>
@@ -96,9 +85,6 @@
     <t>Ajouter des livres à ses favoris</t>
   </si>
   <si>
-    <t>Ajouter des commentaires / notes</t>
-  </si>
-  <si>
     <t>Priorités</t>
   </si>
   <si>
@@ -117,9 +103,6 @@
     <t>Aucune</t>
   </si>
   <si>
-    <t>Permettre aux clients de se connecter / déconnecter</t>
-  </si>
-  <si>
     <t>Permettre aux clients de se connecter avec son ID attribué</t>
   </si>
   <si>
@@ -135,25 +118,52 @@
     <t>Ajouter des livres à une liste de favoris</t>
   </si>
   <si>
-    <t>Ajouter des commentaires ainsi qu'une note par livre</t>
-  </si>
-  <si>
-    <t>Permettre aux admins de se connecter / déconnecter</t>
-  </si>
-  <si>
-    <t>Permettre aux admins d'importer un fichier JSON</t>
-  </si>
-  <si>
-    <t>Ajouter des livres à la bdd</t>
-  </si>
-  <si>
-    <t>Accepter ou refuser les demandes de connexion venant des clients</t>
-  </si>
-  <si>
     <t>Rechercher des livres sur le site</t>
   </si>
   <si>
-    <t>Voir tout les livres disponibles</t>
+    <t>Pouvoir se connecter à son compte client</t>
+  </si>
+  <si>
+    <t>L'utilisateur, s'il en dispose, pourra se connecter à son compte client</t>
+  </si>
+  <si>
+    <t>Accepter / refuser les demandes d'activation de comptes client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'administrateur peut recevoir une demande d'activation 
+d'un compte client lorsque se dernier en fait la demande </t>
+  </si>
+  <si>
+    <t>Ajouter des livres ainsi que leurs détails</t>
+  </si>
+  <si>
+    <t>Ajouter des livres à la bdd, avec leurs détails tels que 
+l'auteur, l'éditeur et le genre</t>
+  </si>
+  <si>
+    <t>Permettre aux admins d'importer un fichier JSON,  du logiciel de la bibliothécaire afin de relier les informations du logiciel  au site internet, permettant de garder à jour les informations sur le site.</t>
+  </si>
+  <si>
+    <t>Déconnexion</t>
+  </si>
+  <si>
+    <t>Permettre aux admins de se déconnecter</t>
+  </si>
+  <si>
+    <t>Permettre aux clients de se déconnecter</t>
+  </si>
+  <si>
+    <t>Ajouter un commentaire et/ou une note par livre</t>
+  </si>
+  <si>
+    <t>Le client peut s'il le souhaite, ajouter un commentaire et / ou
+une note à propos d'un livre</t>
+  </si>
+  <si>
+    <t>Faire une demande de réinitalisation de mot de passe</t>
+  </si>
+  <si>
+    <t>Demande la réinitalisation du mdp en cas d'oubli…</t>
   </si>
 </sst>
 </file>
@@ -184,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,32 +243,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA5B40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,13 +253,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -285,13 +271,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -306,7 +322,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -321,135 +337,98 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,207 +768,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE663369-7902-496D-9288-3154DCCCED76}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="61.1328125" customWidth="1"/>
-    <col min="3" max="3" width="53.06640625" customWidth="1"/>
+    <col min="3" max="3" width="47.19921875" customWidth="1"/>
     <col min="4" max="4" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D14" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5" t="s">
+      <c r="D15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{11B572F1-5AEC-4B3A-88BC-E20F19C18C76}">
-      <formula1>Priorités</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
+      <formula1>Prios</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,42 +985,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46DB002-A3B5-4DF2-BF19-D8CF0AB6AEF4}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>23</v>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{303864A7-EF41-4D6D-9358-EC6A70AF3ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B30DD-93FC-4477-B800-7AF14DD87966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Acteur</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Visiteurs</t>
   </si>
   <si>
-    <t>Rechercher des livres dans la liste</t>
-  </si>
-  <si>
     <t>Importer JSON</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Admins</t>
   </si>
   <si>
-    <t>Se connecter à son compte via l’ID donné et le mdp choisi</t>
-  </si>
-  <si>
     <t>Visualiser l’échéance des livres réservés</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
   </si>
   <si>
     <t>Aucune</t>
-  </si>
-  <si>
-    <t>Permettre aux clients de se connecter avec son ID attribué</t>
   </si>
   <si>
     <t>Voir jusqu'à quand son réservés les livres du client</t>
@@ -153,17 +144,31 @@
     <t>Permettre aux clients de se déconnecter</t>
   </si>
   <si>
-    <t>Ajouter un commentaire et/ou une note par livre</t>
-  </si>
-  <si>
-    <t>Le client peut s'il le souhaite, ajouter un commentaire et / ou
-une note à propos d'un livre</t>
-  </si>
-  <si>
     <t>Faire une demande de réinitalisation de mot de passe</t>
   </si>
   <si>
     <t>Demande la réinitalisation du mdp en cas d'oubli…</t>
+  </si>
+  <si>
+    <t>Ajouter un commentaire par livre</t>
+  </si>
+  <si>
+    <t>Ajouter un commentaire une note par livre</t>
+  </si>
+  <si>
+    <t>Le client peut s'il le souhaite, ajouter un commentaire à propos d'un livre</t>
+  </si>
+  <si>
+    <t>Le client peut s'il le souhaite, ajouter une note à propos d'un livre</t>
+  </si>
+  <si>
+    <t>Rechercher des livres sur le site via une barre de recherche</t>
+  </si>
+  <si>
+    <t>Visualiser les livres sur le site</t>
+  </si>
+  <si>
+    <t>Visualiser les commentaires et notes d'un livre</t>
   </si>
 </sst>
 </file>
@@ -344,19 +349,21 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -364,17 +371,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -417,7 +415,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,9 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,214 +771,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE663369-7902-496D-9288-3154DCCCED76}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="61.1328125" customWidth="1"/>
-    <col min="3" max="3" width="47.19921875" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="23"/>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="23"/>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="19"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="19"/>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="20"/>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="20"/>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="20"/>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="20"/>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D17 D2:D6" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
       <formula1>Prios</formula1>
     </dataValidation>
   </dataValidations>
@@ -995,44 +1020,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B30DD-93FC-4477-B800-7AF14DD87966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4AFB9-6413-48B3-ABB6-EDBCCFDBBE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Acteur</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Rechercher des livres sur le site via une barre de recherche</t>
-  </si>
-  <si>
-    <t>Visualiser les livres sur le site</t>
   </si>
   <si>
     <t>Visualiser les commentaires et notes d'un livre</t>
@@ -249,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -367,70 +364,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE663369-7902-496D-9288-3154DCCCED76}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -797,210 +853,200 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
+      <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="14"/>
+      <c r="B11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="14"/>
+      <c r="B13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
+      <c r="B14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
+      <c r="B15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="15"/>
+      <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="20"/>
-      <c r="B14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
-      <c r="B15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="C16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D17 D2:D6" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D16 D2:D5" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
       <formula1>Prios</formula1>
     </dataValidation>
   </dataValidations>
@@ -1056,7 +1102,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4AFB9-6413-48B3-ABB6-EDBCCFDBBE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584EF793-1EDF-40B5-893D-6CB81306A447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -440,30 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -487,6 +463,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,7 +830,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -856,13 +856,13 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -870,11 +870,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -882,21 +882,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -904,13 +904,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -918,11 +918,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -930,11 +930,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -942,11 +942,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -954,13 +954,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -968,11 +968,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -980,11 +980,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -992,11 +992,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1004,11 +1004,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1016,11 +1016,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1028,11 +1028,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="8" t="s">

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584EF793-1EDF-40B5-893D-6CB81306A447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238FFDD-C746-40AA-8F54-F6F00CBFAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Acteur</t>
   </si>
@@ -128,10 +128,6 @@
     <t>Ajouter des livres ainsi que leurs détails</t>
   </si>
   <si>
-    <t>Ajouter des livres à la bdd, avec leurs détails tels que 
-l'auteur, l'éditeur et le genre</t>
-  </si>
-  <si>
     <t>Permettre aux admins d'importer un fichier JSON,  du logiciel de la bibliothécaire afin de relier les informations du logiciel  au site internet, permettant de garder à jour les informations sur le site.</t>
   </si>
   <si>
@@ -166,6 +162,21 @@
   </si>
   <si>
     <t>Visualiser les commentaires et notes d'un livre</t>
+  </si>
+  <si>
+    <t>Ajouter des livres à la bdd, avec leurs détails tels que l'auteur, l'éditeur et le genre</t>
+  </si>
+  <si>
+    <t>Supprimer des livres de la bdd</t>
+  </si>
+  <si>
+    <t>Modifier des livres de la bdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer des livres </t>
+  </si>
+  <si>
+    <t>Modifier des livres, leurs détails…</t>
   </si>
 </sst>
 </file>
@@ -402,23 +413,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -479,13 +488,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,16 +833,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE663369-7902-496D-9288-3154DCCCED76}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="61.1328125" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="3" max="3" width="76.19921875" customWidth="1"/>
     <col min="4" max="4" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -884,7 +890,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="20"/>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
@@ -894,10 +900,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="20"/>
       <c r="B5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
@@ -917,136 +923,160 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="25"/>
       <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="25"/>
+      <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="26"/>
-      <c r="B9" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="22"/>
       <c r="B15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="22"/>
+      <c r="B16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="22"/>
+      <c r="B17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A12:A18"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D16 D2:D5" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D18 D2:D11" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
       <formula1>Prios</formula1>
     </dataValidation>
   </dataValidations>

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238FFDD-C746-40AA-8F54-F6F00CBFAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58BC5B-336F-4803-8A2D-BD6B5565024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -473,19 +473,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,13 +835,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE663369-7902-496D-9288-3154DCCCED76}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.1328125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="76.19921875" customWidth="1"/>
     <col min="4" max="4" width="11.265625" customWidth="1"/>
   </cols>
@@ -861,8 +861,8 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="20"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="22"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="16" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="18" t="s">
         <v>29</v>
       </c>

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58BC5B-336F-4803-8A2D-BD6B5565024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E5EA35-16FB-4627-BCD9-43D352C7A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Acteur</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Modifier des livres, leurs détails…</t>
+  </si>
+  <si>
+    <t>Infos</t>
+  </si>
+  <si>
+    <t>Sous forme de cartes, avec le nom et prénom du client, son id et la date de la demande</t>
+  </si>
+  <si>
+    <t>Front de la page d'ajout terminé</t>
+  </si>
+  <si>
+    <t>A faire sur la page d'accueil en tant qu'admin</t>
   </si>
 </sst>
 </file>
@@ -257,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -423,11 +435,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -448,7 +473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,6 +517,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,7 +866,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -844,6 +874,7 @@
     <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="76.19921875" customWidth="1"/>
     <col min="4" max="4" width="11.265625" customWidth="1"/>
+    <col min="5" max="5" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -859,224 +890,250 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16" t="s">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18" t="s">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="E18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A11"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D18 D2:D11" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
       <formula1>Prios</formula1>
     </dataValidation>
   </dataValidations>

--- a/Fonctionnalités.xlsx
+++ b/Fonctionnalités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblio_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E5EA35-16FB-4627-BCD9-43D352C7A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A384A-D5B3-4070-9086-01F2948AF945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6FA006A-806B-4DC8-8CB4-F2137BEA4A1B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Acteur</t>
   </si>
@@ -185,10 +185,16 @@
     <t>Sous forme de cartes, avec le nom et prénom du client, son id et la date de la demande</t>
   </si>
   <si>
-    <t>Front de la page d'ajout terminé</t>
-  </si>
-  <si>
     <t>A faire sur la page d'accueil en tant qu'admin</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -863,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE663369-7902-496D-9288-3154DCCCED76}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -877,7 +883,7 @@
     <col min="5" max="5" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,8 +899,14 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
@@ -908,8 +920,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>22</v>
@@ -921,8 +935,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="12" t="s">
         <v>39</v>
@@ -932,8 +948,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="12" t="s">
         <v>32</v>
@@ -945,8 +963,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -962,8 +982,12 @@
       <c r="E6" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="24"/>
       <c r="B7" s="13" t="s">
         <v>27</v>
@@ -974,11 +998,13 @@
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="24"/>
       <c r="B8" s="13" t="s">
         <v>43</v>
@@ -990,10 +1016,12 @@
         <v>13</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="24"/>
       <c r="B9" s="13" t="s">
         <v>44</v>
@@ -1005,8 +1033,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="24"/>
       <c r="B10" s="13" t="s">
         <v>5</v>
@@ -1018,8 +1048,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="13" t="s">
         <v>29</v>
@@ -1031,8 +1063,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1080,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
@@ -1059,8 +1095,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
@@ -1072,8 +1110,10 @@
         <v>14</v>
       </c>
       <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="15" t="s">
         <v>10</v>
@@ -1085,8 +1125,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="15" t="s">
         <v>35</v>
@@ -1098,8 +1140,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
@@ -1111,8 +1155,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
         <v>29</v>
@@ -1124,13 +1170,17 @@
         <v>15</v>
       </c>
       <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{65D30413-01E0-45AD-A97B-C17E7FA8B744}">
